--- a/Structure/7 - Oil Gas/RegionalOilGasEmployment.xlsx
+++ b/Structure/7 - Oil Gas/RegionalOilGasEmployment.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ENERGY BRANCH\Statistics\Energy Statistics Processing\Releases and Publications\Energy Statistics Database\Charts\Sections\7 Oil and Gas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\7 - Oil Gas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A0C91E3-46B2-468E-AC83-36879750C019}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B760109-8B17-41E3-B5F2-AEED16509BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AF8061D-2AF9-4DF0-ADB6-7A142C1A93A4}"/>
+    <workbookView xWindow="1740" yWindow="1740" windowWidth="28780" windowHeight="15370" xr2:uid="{5AF8061D-2AF9-4DF0-ADB6-7A142C1A93A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -78,7 +81,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,15 +114,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,12 +439,12 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,23 +452,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -464,81 +476,86 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
       <c r="B6" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B13">
-    <sortCondition descending="1" ref="B2:B13"/>
+  <autoFilter ref="A1:B1" xr:uid="{06651F34-2239-4D69-884D-0DC3C9901C78}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
+      <sortCondition descending="1" ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
+    <sortCondition ref="A1:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
